--- a/codegen/__out__/deno/gen/operation_record/operation_record.xlsx
+++ b/codegen/__out__/deno/gen/operation_record/operation_record.xlsx
@@ -30,34 +30,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">模块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模块名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">方法名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">操作</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创建人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">创建时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新时间</t>
+    <t xml:space="preserve">&lt;%=await _data_.n("模块")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("模块名称")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("方法")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("方法名称")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("操作")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("备注")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("创建人")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("创建时间")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("更新人")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("更新时间")%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.mod%&gt;</t>
